--- a/data/financial_statements/sofp/C.xlsx
+++ b/data/financial_statements/sofp/C.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,408 +584,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1041540000000</v>
+      </c>
+      <c r="C2">
         <v>1007081000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>986239000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>975494000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>921266000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1004418000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>979235000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1000413000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>979406000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>961262000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>955001000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>913456000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>721381000000.0001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>788392000000.0001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>769843000000.0001</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>756899000000.0001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>714906000000.0001</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>737729000000.0001</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>729377000000.0001</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>729399000000.0001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>665784000000.0001</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>697624000000.0001</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>679753000000.0001</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>667877000000.0001</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>641232000000.0001</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>655387000000.0001</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>650580000000.0001</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>657129000000.0001</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>593987000000.0001</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>658302000000.0001</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>670349000000.0001</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>697774000000.0001</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>699553000000.0001</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>715328000000.0001</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>730214000000.0001</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>745978000000.0001</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>741855000000.0001</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>770870000000.0001</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>758948000000.0001</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>753124000000.0001</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1735979000000</v>
+      </c>
+      <c r="C3">
         <v>1716428000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1708106000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1708988000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1626918000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1710954000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1697969000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1705228000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1675139000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1653357000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1665506000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1682190000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1447938000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1521820000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1496074000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1471416000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1422237000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1440981000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1425408000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1436555000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1358847000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1376517000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1352910000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1321330000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1282428000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1317495000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1308642000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1298502000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1226661000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1304995000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1332313000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1339867000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1356613000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1391537000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1421692000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1423760000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1413353000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1432792000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1414593000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1400996000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>2932000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3000000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2900000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>845000000</v>
-      </c>
-      <c r="F4">
-        <v>2800000000</v>
       </c>
       <c r="G4">
         <v>2800000000</v>
       </c>
       <c r="H4">
+        <v>2800000000</v>
+      </c>
+      <c r="I4">
         <v>2900000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2800000000</v>
-      </c>
-      <c r="J4">
-        <v>2900000000</v>
       </c>
       <c r="K4">
         <v>2900000000</v>
@@ -879,1756 +999,1801 @@
       <c r="L4">
         <v>2900000000</v>
       </c>
+      <c r="M4">
+        <v>2900000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>526582000000.0001</v>
+      </c>
+      <c r="C5">
         <v>508016000000.0001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>513878000000.0001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>514602000000.0001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>512822000000.0001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>500849000000.0001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>487063000000.0001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>472959000000.0001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>447359000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>447524000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>433253000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>398883000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>368563000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>358383000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>349702000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>349281000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>358607000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>345513000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>349716000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>351971000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>352290000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>354674000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>351710000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>345833000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>353304000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>354940000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>356293000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>353252000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>342955000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>342439000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>332121000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>326815000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>333443000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>333047000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>325623000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>312900000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>308980000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>303525000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>300340000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>304859000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>23164000000</v>
+        <v>24119000000</v>
       </c>
       <c r="C6">
-        <v>23523000000</v>
+        <v>23811000000</v>
       </c>
       <c r="D6">
-        <v>23867000000</v>
+        <v>24123000000</v>
       </c>
       <c r="E6">
-        <v>25390000000</v>
+        <v>24387000000</v>
       </c>
       <c r="F6">
-        <v>25717000000</v>
+        <v>25794000000</v>
       </c>
       <c r="G6">
+        <v>26126000000</v>
+      </c>
+      <c r="H6">
         <v>26747000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>26646000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>26909000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26428000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>25850000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25824000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>26948000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>26666000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>27091000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>27233000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>27266000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>27403000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>27383000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>27696000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>27402000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>27630000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>27796000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>27845000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>28337000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>29167000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>29341000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>27592000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>27851000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>28090000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>29007000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>29079000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>30003000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>31118000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>32071000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>32485000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>32783000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>32566000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>32401000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>33134000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>183104000000</v>
+        <v>129996000000</v>
       </c>
       <c r="C7">
-        <v>186370000000</v>
+        <v>132809000000</v>
       </c>
       <c r="D7">
-        <v>232913000000</v>
+        <v>134797000000</v>
       </c>
       <c r="E7">
-        <v>154962000000</v>
+        <v>146128000000</v>
       </c>
       <c r="F7">
-        <v>181022000000</v>
+        <v>125879000000</v>
       </c>
       <c r="G7">
+        <v>123947000000</v>
+      </c>
+      <c r="H7">
         <v>116089000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>109433000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>110683000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>107150000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>108106000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>112873000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>107709000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>107933000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>115359000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>110483000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>109273000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>111268000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>109827000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>105882000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>103926000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>130312000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>131647000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>126627000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>128008000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>116515000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>124495000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>121621000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>133743000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>132832000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>135929000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>136040000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>122122000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>127147000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>130329000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>125591000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>125266000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>127308000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>133348000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>142736000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>680697000000.0001</v>
+      </c>
+      <c r="C8">
         <v>664636000000.0001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>672798000000.0001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>685117000000.0001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>664495000000.0001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>650922000000.0001</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>629899000000.0001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>609038000000.0001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>584951000000.0001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>581102000000.0001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>567209000000.0001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>537580000000.0001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>503220000000.0001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>492982000000.0001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>492152000000.0001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>486997000000.0001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>495146000000.0001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>484184000000.0001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>486926000000.0001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>485549000000.0001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>483618000000.0001</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>512616000000.0001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>511153000000.0001</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>500305000000.0001</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>509649000000.0001</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>500622000000.0001</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>510129000000.0001</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>502465000000.0001</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>504549000000.0001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>503361000000.0001</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>497057000000.0001</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>491934000000.0001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>485568000000.0001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>491312000000.0001</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>488023000000.0001</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>470976000000.0001</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>467029000000.0001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>466719000000.0001</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>469395000000.0001</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>480738000000.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>2416676000000</v>
+      </c>
+      <c r="C9">
         <v>2381064000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2380904000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2394105000000</v>
       </c>
-      <c r="E9">
-        <v>2296436000000</v>
-      </c>
       <c r="F9">
+        <v>2291413000000</v>
+      </c>
+      <c r="G9">
         <v>2361876000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2327868000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2314266000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2260090000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2234459000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2232715000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2219770000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1951158000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2014802000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1988226000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1958413000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1917383000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1925165000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1912334000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1922104000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1842465000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1889133000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1864063000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1821635000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1792077000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1818117000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1818771000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1800967000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1731210000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1808356000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1829370000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1831801000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1842181000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1882849000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1909715000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1894736000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1880382000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1899511000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1883988000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1881734000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>249540000000</v>
+      </c>
+      <c r="C10">
         <v>250797000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>238526000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>234638000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>219258000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>238867000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>253279000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>251255000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>229039000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>244666000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>255878000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>277275000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>211388000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>230277000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>223575000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>229694000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>210114000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>209685000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>215061000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>207853000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>200729000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>199431000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>191299000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>174357000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>172522000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>182651000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>176409000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>178101000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>167575000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>191183000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>202919000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>214776000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>231773000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>240570000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>243446000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>249579000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>262456000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>275291000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>277059000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>270246000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1365954000000</v>
+      </c>
+      <c r="C11">
         <v>1306486000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1321848000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1333711000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1317230000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1347528000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1310281000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1300975000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1280671000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1262623000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1233660000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1184911000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1070590000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1087769000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1045607000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1030355000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1013170000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1005176000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>996730000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1001219000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>959822000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>964038000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>958743000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>949990000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>929406000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>940252000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>937852000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>934591000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>907887000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>904243000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>908037000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>899647000000.0001</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>899332000000.0001</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>942655000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>965725000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>966263000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>968273000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>955460000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>938427000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>933762000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>250797000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>238526000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>234638000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>253014000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>249267000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>259779000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>251255000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>248223000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>253366000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>255878000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>499599000000.0001</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>170647000000</v>
+      </c>
+      <c r="C13">
         <v>196479000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>180453000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>188059000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>161529000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>179286000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>174706000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>179117000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>168027000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>146990000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>149264000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>163995000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>119894000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>135596000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>136294000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>136392000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>144305000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>147652000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>140745000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>143961000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>125170000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>138820000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>136745000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>144070000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>139045000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>131649000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>136307000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>136146000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>117512000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>125981000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>136295000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>142438000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>139036000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>137272000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>123370000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>124040000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>108762000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>122048000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>123022000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>120226000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1786141000000</v>
+      </c>
+      <c r="C14">
         <v>1753762000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1740827000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1756408000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1698017000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1765681000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1738266000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1731347000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1677737000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1654279000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1638802000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1626181000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1401872000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1453642000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1405476000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1396441000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1367589000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1362513000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1352536000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1353033000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1285721000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1302289000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1286787000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1268417000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1240973000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1254552000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1250568000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1248838000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1192974000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1221407000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1247251000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1256861000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1270141000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1320497000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1332541000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1339882000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1339491000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1352799000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1338508000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1324234000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>256186000000</v>
+        <v>271606000000</v>
       </c>
       <c r="C15">
-        <v>260325000000</v>
+        <v>253068000000</v>
       </c>
       <c r="D15">
-        <v>257054000000</v>
+        <v>257425000000</v>
       </c>
       <c r="E15">
-        <v>223749000000</v>
+        <v>253954000000</v>
       </c>
       <c r="F15">
-        <v>250889000000</v>
+        <v>254374000000</v>
       </c>
       <c r="G15">
+        <v>258274000000</v>
+      </c>
+      <c r="H15">
         <v>264575000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>256335000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>271686000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>273254000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>279775000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>266098000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>248760000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>242238000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>252189000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>243566000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>231999000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>235270000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>236822000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>237938000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>236709000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>232673000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>225179000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>208530000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>206178000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>209051000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>207448000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>207835000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>201275000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>213533000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>211845000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>210522000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>223080000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>223842000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>226984000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>222747000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>221116000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>221593000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>220959000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>234326000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>368478000000</v>
+        <v>87873000000</v>
       </c>
       <c r="C16">
-        <v>360579000000</v>
+        <v>87276000000</v>
       </c>
       <c r="D16">
-        <v>370349000000</v>
+        <v>86552000000</v>
       </c>
       <c r="E16">
-        <v>294748000000</v>
+        <v>94066000000</v>
       </c>
       <c r="F16">
-        <v>312582000000</v>
+        <v>74920000000</v>
       </c>
       <c r="G16">
+        <v>75810000000</v>
+      </c>
+      <c r="H16">
         <v>62701000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>62404000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>59983000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>58003000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>61269000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>60141000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>57979000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>58510000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>62612000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>58735000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>56150000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>56173000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>54336000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>58582000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>57021000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>62344000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>58043000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>55880000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>61631000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>59903000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>65680000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>57276000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>60147000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>91722000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>94582000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>90143000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>85084000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>65191000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>74768000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>62458000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>59935000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>63349000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>62928000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>68536000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>359479000000</v>
+      </c>
+      <c r="C17">
         <v>340344000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>343977000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>348020000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>329294000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>334084000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>327276000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>318739000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>331669000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>331257000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>341044000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>326239000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>306739000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>300748000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>314801000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>302301000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>288149000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>291443000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>291158000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>296520000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>293730000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>295017000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>283222000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>264410000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>267809000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>268954000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>273128000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>265111000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>261422000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>305255000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>306427000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>300665000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>308164000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>289033000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>301752000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>285205000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>281051000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>286981000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>285949000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>302862000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>2214838000000</v>
+      </c>
+      <c r="C18">
         <v>2181947000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2181278000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2195752000000</v>
       </c>
-      <c r="E18">
-        <v>2093764000000</v>
-      </c>
       <c r="F18">
+        <v>2088741000000</v>
+      </c>
+      <c r="G18">
         <v>2160266000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2124958000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2110993000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2059890000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2039864000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2040413000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2026788000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1757212000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1817732000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1790116000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1761398000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1720309000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1727302000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1711366000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1719238000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1640793000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1660511000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1632956000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1592482000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1565934000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1585427000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1585750000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1572206000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1508118000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1586219000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1608545000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1615778000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1630485000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1668958000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1696616000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1684494000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1674249000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1696772000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1686162000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1686395000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>108458000000</v>
+      </c>
+      <c r="C19">
         <v>108347000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>108210000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>108050000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>108003000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>107922000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>107820000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>107694000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>107846000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>107764000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>107668000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>107550000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>107840000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>107741000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>107657000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>107551000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>107922000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>107825000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>107724000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>107599000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>108008000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>107896000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>107798000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>107613000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>108042000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>107875000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>107730000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>107590000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>108288000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>108261000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>108219000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>108124000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>107979000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>107839000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>107669000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>107505000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>107193000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>107030000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>106876000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>106661000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>18995000000</v>
@@ -2643,19 +2808,19 @@
         <v>18995000000</v>
       </c>
       <c r="F20">
-        <v>17995000000</v>
+        <v>18995000000</v>
       </c>
       <c r="G20">
         <v>17995000000</v>
       </c>
       <c r="H20">
+        <v>17995000000</v>
+      </c>
+      <c r="I20">
         <v>20280000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>19480000000</v>
-      </c>
-      <c r="J20">
-        <v>17980000000</v>
       </c>
       <c r="K20">
         <v>17980000000</v>
@@ -2667,28 +2832,28 @@
         <v>17980000000</v>
       </c>
       <c r="N20">
+        <v>17980000000</v>
+      </c>
+      <c r="O20">
         <v>19480000000</v>
-      </c>
-      <c r="O20">
-        <v>17980000000</v>
       </c>
       <c r="P20">
         <v>17980000000</v>
       </c>
       <c r="Q20">
+        <v>17980000000</v>
+      </c>
+      <c r="R20">
         <v>18460000000</v>
-      </c>
-      <c r="R20">
-        <v>19035000000</v>
       </c>
       <c r="S20">
         <v>19035000000</v>
       </c>
       <c r="T20">
+        <v>19035000000</v>
+      </c>
+      <c r="U20">
         <v>19156000000</v>
-      </c>
-      <c r="U20">
-        <v>19253000000</v>
       </c>
       <c r="V20">
         <v>19253000000</v>
@@ -2709,48 +2874,51 @@
         <v>19253000000</v>
       </c>
       <c r="AB20">
+        <v>19253000000</v>
+      </c>
+      <c r="AC20">
         <v>17753000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>16718000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>15218000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>13968000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>11968000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>10468000000</v>
-      </c>
-      <c r="AH20">
-        <v>8968000000</v>
       </c>
       <c r="AI20">
         <v>8968000000</v>
       </c>
       <c r="AJ20">
+        <v>8968000000</v>
+      </c>
+      <c r="AK20">
         <v>7218000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>6738000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5243000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4293000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3137000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>31000000</v>
@@ -2869,745 +3037,763 @@
       <c r="AN21">
         <v>31000000</v>
       </c>
+      <c r="AO21">
+        <v>31000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>194734000000</v>
+      </c>
+      <c r="C22">
         <v>193462000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>191261000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>187962000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>184948000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>183024000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>179686000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>174816000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>168272000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>165303000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>163431000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>163438000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>165369000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>161797000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>158321000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>154859000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>151347000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>148436000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>145211000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>141863000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>138425000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>155174000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>152178000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>149731000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>146477000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>143678000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>140527000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>136998000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>133841000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>130921000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>126954000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>122463000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>117852000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>118041000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>115361000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>115091000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>111168000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>108812000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>105725000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>101580000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>73967000000</v>
+      </c>
+      <c r="C23">
         <v>73977000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>73988000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>73744000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>71240000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>71246000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>68253000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>65261000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>64129000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>64137000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>64143000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>64147000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>61660000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>56541000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>51427000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>47861000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>44370000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>39678000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>34413000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>32115000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>30309000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>24829000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>19342000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>17579000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>16302000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>12069000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>9538000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8224000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>7677000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>6326000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4628000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>3275000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2929000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2631000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2520000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2237000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1658000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1472000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1075000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>991000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>179565000000</v>
+        <v>182843000000</v>
       </c>
       <c r="C24">
-        <v>180019000000</v>
+        <v>180122000000</v>
       </c>
       <c r="D24">
-        <v>178714000000</v>
+        <v>180631000000</v>
       </c>
       <c r="E24">
-        <v>182977000000</v>
+        <v>179358000000</v>
       </c>
       <c r="F24">
-        <v>182880000000</v>
+        <v>183677000000</v>
       </c>
       <c r="G24">
+        <v>183615000000</v>
+      </c>
+      <c r="H24">
         <v>184915000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>182993000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>180720000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>176615000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>174322000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>175002000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>175966000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>177590000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>180130000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>179035000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>178614000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>178828000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>181933000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>183710000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>182419000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>209369000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>211854000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>209900000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>206890000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>213437000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>213768000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>211008000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>206374000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>206919000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>206857000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>204055000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>201228000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>204923000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>204131000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>203024000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>199395000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>197496000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>193533000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>192202000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>198560000000</v>
+        <v>201838000000</v>
       </c>
       <c r="C25">
-        <v>199014000000</v>
+        <v>199117000000</v>
       </c>
       <c r="D25">
-        <v>197709000000</v>
+        <v>199626000000</v>
       </c>
       <c r="E25">
-        <v>201972000000</v>
+        <v>198353000000</v>
       </c>
       <c r="F25">
-        <v>200875000000</v>
+        <v>202672000000</v>
       </c>
       <c r="G25">
+        <v>201610000000</v>
+      </c>
+      <c r="H25">
         <v>202910000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>203273000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>200200000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>194595000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>192302000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>192982000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>193946000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>197070000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>198110000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>197015000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>197074000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>197863000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>200968000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>202866000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>201672000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>228622000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>231107000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>229153000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>226143000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>232690000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>233021000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>228761000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>223092000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>222137000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>220825000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>216023000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>211696000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>213891000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>213099000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>210242000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>206133000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>202739000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>197826000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>195339000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2416676000000</v>
+      </c>
+      <c r="C26">
         <v>2381064000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2380904000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2394105000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2291413000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2361876000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2327868000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2314266000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2260090000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2234459000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2232715000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2219770000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1951158000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2014802000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1988226000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1958413000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1917383000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1925165000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1912334000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1922104000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1842465000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1889133000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1864063000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1821635000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1792077000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1818117000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1818771000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1800967000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1731210000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1808356000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1829370000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1831801000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1842181000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1882849000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1909715000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1894736000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1880382000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1899511000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1883988000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1881734000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1937000000</v>
+      </c>
+      <c r="C27">
         <v>1936853000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1936710000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1941920000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1984355000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1984300000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2026785000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2067048000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2082089000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2081960000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2081865000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2081808000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2114123000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2183194000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2259056000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2312468000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2368467000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2442137000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2516600000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2549933000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2569909000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2644002000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2724556000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2753300000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2772392000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2849730000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2905374000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2934929000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>2953279000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2978990000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3009845000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>3034139000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>3023918000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>3029488000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3031773000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>3037785000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>3029243000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3033000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>3041026000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3042885000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>760000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>760000</v>
@@ -3619,22 +3805,22 @@
         <v>760000</v>
       </c>
       <c r="F28">
-        <v>720000</v>
+        <v>760000</v>
       </c>
       <c r="G28">
         <v>720000</v>
       </c>
       <c r="H28">
+        <v>720000</v>
+      </c>
+      <c r="I28">
         <v>811000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>779000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>719200</v>
-      </c>
-      <c r="K28">
-        <v>719000</v>
       </c>
       <c r="L28">
         <v>719000</v>
@@ -3643,28 +3829,28 @@
         <v>719000</v>
       </c>
       <c r="N28">
+        <v>719000</v>
+      </c>
+      <c r="O28">
         <v>779000</v>
-      </c>
-      <c r="O28">
-        <v>719000</v>
       </c>
       <c r="P28">
         <v>719000</v>
       </c>
       <c r="Q28">
+        <v>719000</v>
+      </c>
+      <c r="R28">
         <v>738000</v>
-      </c>
-      <c r="R28">
-        <v>761000</v>
       </c>
       <c r="S28">
         <v>761000</v>
       </c>
       <c r="T28">
+        <v>761000</v>
+      </c>
+      <c r="U28">
         <v>766000</v>
-      </c>
-      <c r="U28">
-        <v>770000</v>
       </c>
       <c r="V28">
         <v>770000</v>
@@ -3685,408 +3871,420 @@
         <v>770000</v>
       </c>
       <c r="AB28">
+        <v>770000</v>
+      </c>
+      <c r="AC28">
         <v>710100</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>669000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>609000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>559000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>478700</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>418700</v>
-      </c>
-      <c r="AH28">
-        <v>358700</v>
       </c>
       <c r="AI28">
         <v>358700</v>
       </c>
       <c r="AJ28">
+        <v>358700</v>
+      </c>
+      <c r="AK28">
         <v>288700</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>269500</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>209700</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>171700</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>125000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>177719000000</v>
+      </c>
+      <c r="C29">
         <v>175306000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>175503000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>173966000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>176878000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>175484000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>176163000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>176627000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>173291000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>168167000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>166452000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>167158000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>166998000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>170404000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>171019000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>169782000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>169808000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>170460000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>173585000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>175170000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>174270000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>200992000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>203311000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>201308000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>197806000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>203523000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>203680000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>201169000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>195241000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>194047000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>191818000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>186944000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>181693000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>182773000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>181028000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>177757000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>173350000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>170173000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>165425000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>162205000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>-500098000000.0001</v>
+        <v>-769934000000.0001</v>
       </c>
       <c r="C30">
-        <v>-487388000000.0001</v>
+        <v>-503216000000.0001</v>
       </c>
       <c r="D30">
-        <v>-483802000000.0001</v>
+        <v>-490288000000.0001</v>
       </c>
       <c r="E30">
-        <v>-444503000000</v>
+        <v>-486902000000.0001</v>
       </c>
       <c r="F30">
-        <v>-504262000000.0001</v>
+        <v>-413878000000</v>
       </c>
       <c r="G30">
+        <v>-496877000000.0001</v>
+      </c>
+      <c r="H30">
         <v>-454881000000.0001</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-492823000000.0001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-459497000000.0001</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-434642000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-419348000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-147758999999.9999</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-472621000000.0001</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-546154000000.0001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-517654000000.0001</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-513333000000.0001</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-482907000000.0001</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-502459000000.0001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-492555000000.0001</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-491461000000.0001</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-429075000000.0002</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-464951000000.0001</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-454574000000.0001</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-459347000000.0001</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-435054000000.0002</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-446336000000.0002</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-443132000000.0002</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-449294000000.0002</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-392712000000.0002</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-444769000000.0002</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-458504000000.0001</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-487252000000.0001</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-476473000000.0001</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-491486000000.0001</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-503230000000.0001</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-523231000000.0001</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-520739000000.0001</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-549277000000.0001</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-537989000000.0001</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-518798000000.0001</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>506983000000.0001</v>
+        <v>271606000000</v>
       </c>
       <c r="C31">
-        <v>498851000000.0001</v>
+        <v>503865000000.0001</v>
       </c>
       <c r="D31">
-        <v>491692000000.0001</v>
+        <v>495951000000.0001</v>
       </c>
       <c r="E31">
-        <v>476763000000.0001</v>
+        <v>488592000000.0001</v>
       </c>
       <c r="F31">
-        <v>500156000000.0001</v>
+        <v>507388000000.0001</v>
       </c>
       <c r="G31">
+        <v>507541000000.0001</v>
+      </c>
+      <c r="H31">
         <v>524354000000.0001</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>507590000000.0001</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>519909000000.0001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>526620000000.0001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>535653000000.0001</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>765697000000.0001</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>248760000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>242238000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>252189000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>243566000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>231999000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>235270000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>236822000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>237938000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>236709000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>232673000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>225179000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>208530000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>206178000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>209051000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>207448000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>207835000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>201275000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>213533000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>211845000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>210522000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>223080000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>223842000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>226984000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>222747000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>221116000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>221593000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>220959000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>234326000000</v>
       </c>
     </row>
